--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/流动资产合计.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/流动资产合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1157.22394</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3273.01306</v>
-      </c>
-      <c r="D2" t="n">
-        <v>267.2087</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.80504</v>
-      </c>
-      <c r="F2" t="n">
-        <v>45.38477</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2129.55198</v>
-      </c>
-      <c r="H2" t="n">
-        <v>417.41334</v>
-      </c>
-      <c r="I2" t="n">
-        <v>899.94852</v>
-      </c>
-      <c r="J2" t="n">
-        <v>202.75012</v>
-      </c>
-      <c r="K2" t="n">
-        <v>32628.81</v>
-      </c>
-      <c r="L2" t="n">
-        <v>204.99462</v>
-      </c>
-      <c r="M2" t="n">
-        <v>23.14529</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.92374</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1606.05191</v>
-      </c>
-      <c r="P2" t="n">
-        <v>822.78971</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>139.64294</v>
-      </c>
-      <c r="R2" t="n">
-        <v>127.29959</v>
-      </c>
-      <c r="S2" t="n">
-        <v>91.3977</v>
-      </c>
-      <c r="T2" t="n">
-        <v>161.57809</v>
-      </c>
-      <c r="U2" t="n">
-        <v>262.27864</v>
-      </c>
-      <c r="V2" t="n">
-        <v>956.3941</v>
-      </c>
-      <c r="W2" t="n">
-        <v>161.13197</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1258.17023</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>4226.23376</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>2441.64852</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1058.01774</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>61.71934</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1124.25887</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>885.01176</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1258.39486</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>321.87476</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>429.628</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>331.4147</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1158.94377</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>166.59441</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>309.47355</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>704.24926</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>773.88279</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>2755.21735</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>77.57795</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1069.51254</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3625.83563</v>
-      </c>
-      <c r="D3" t="n">
-        <v>283.98288</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.4399</v>
-      </c>
-      <c r="F3" t="n">
-        <v>42.72576</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2084.57371</v>
-      </c>
-      <c r="H3" t="n">
-        <v>309.58313</v>
-      </c>
-      <c r="I3" t="n">
-        <v>959.9783200000001</v>
-      </c>
-      <c r="J3" t="n">
-        <v>221.23204</v>
-      </c>
-      <c r="K3" t="n">
-        <v>33239.63</v>
-      </c>
-      <c r="L3" t="n">
-        <v>217.30015</v>
-      </c>
-      <c r="M3" t="n">
-        <v>23.90181</v>
-      </c>
-      <c r="N3" t="n">
-        <v>43.8486</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1620.66748</v>
-      </c>
-      <c r="P3" t="n">
-        <v>892.00372</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>133.09827</v>
-      </c>
-      <c r="R3" t="n">
-        <v>113.97022</v>
-      </c>
-      <c r="S3" t="n">
-        <v>88.95442</v>
-      </c>
-      <c r="T3" t="n">
-        <v>160.61282</v>
-      </c>
-      <c r="U3" t="n">
-        <v>263.96812</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1415.07047</v>
-      </c>
-      <c r="W3" t="n">
-        <v>178.94498</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1368.71986</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>4210.92868</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>2480.43895</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1093.3489</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>62.26771</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1061.17283</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>852.12836</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1142.53386</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>349.07628</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>427.76658</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>344.1286</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1086.09522</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>166.43621</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>293.31141</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>609.80048</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>788.94771</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>2799.83001</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>80.26515000000001</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1119.55013</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3999.42249</v>
-      </c>
-      <c r="D4" t="n">
-        <v>276.15561</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.4421</v>
-      </c>
-      <c r="F4" t="n">
-        <v>42.58296</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2040.67794</v>
-      </c>
-      <c r="H4" t="n">
-        <v>293.28487</v>
-      </c>
-      <c r="I4" t="n">
-        <v>959.37395</v>
-      </c>
-      <c r="J4" t="n">
-        <v>210.41518</v>
-      </c>
-      <c r="K4" t="n">
-        <v>33468.77</v>
-      </c>
-      <c r="L4" t="n">
-        <v>195.86179</v>
-      </c>
-      <c r="M4" t="n">
-        <v>19.73088</v>
-      </c>
-      <c r="N4" t="n">
-        <v>42.7805</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1674.18291</v>
-      </c>
-      <c r="P4" t="n">
-        <v>874.6534799999999</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>127.896</v>
-      </c>
-      <c r="R4" t="n">
-        <v>92.25443</v>
-      </c>
-      <c r="S4" t="n">
-        <v>84.14704999999999</v>
-      </c>
-      <c r="T4" t="n">
-        <v>159.45047</v>
-      </c>
-      <c r="U4" t="n">
-        <v>255.22215</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1488.41069</v>
-      </c>
-      <c r="W4" t="n">
-        <v>209.71912</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1525.64584</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>4366.35835</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>2306.47107</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1065.15248</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>49.35058</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1028.25942</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>844.35716</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1038.70887</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>380.165</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>438.46624</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>306.76657</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1059.07775</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>172.23265</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>306.70214</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>558.70185</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>764.85806</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>2723.33507</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>88.09773</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
